--- a/data/trans_orig/P29A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>273669</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>251476</v>
+        <v>250864</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>295396</v>
+        <v>294206</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5917612770578093</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.543772820824505</v>
+        <v>0.542448937588625</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6387400995251397</v>
+        <v>0.6361672577194575</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>116</v>
@@ -765,19 +765,19 @@
         <v>119772</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>103467</v>
+        <v>104051</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>137202</v>
+        <v>138258</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3933849778203883</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3398322219271178</v>
+        <v>0.3417508184762471</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.450636198427133</v>
+        <v>0.4541026690504893</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>380</v>
@@ -786,19 +786,19 @@
         <v>393441</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>367603</v>
+        <v>365233</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>420905</v>
+        <v>421090</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5130077334717154</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4793174927942667</v>
+        <v>0.4762268665667528</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5488176254298638</v>
+        <v>0.5490587661630553</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>188797</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>167070</v>
+        <v>168260</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>210990</v>
+        <v>211602</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4082387229421907</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3612599004748603</v>
+        <v>0.3638327422805426</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4562271791754951</v>
+        <v>0.457551062411375</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>180</v>
@@ -836,19 +836,19 @@
         <v>184692</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>167262</v>
+        <v>166206</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>200997</v>
+        <v>200413</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6066150221796116</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5493638015728671</v>
+        <v>0.5458973309495108</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6601677780728822</v>
+        <v>0.6582491815237529</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>361</v>
@@ -857,19 +857,19 @@
         <v>373489</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>346025</v>
+        <v>345840</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>399327</v>
+        <v>401697</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4869922665282846</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4511823745701362</v>
+        <v>0.4509412338369448</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5206825072057334</v>
+        <v>0.5237731334332472</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>216036</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>196234</v>
+        <v>196352</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>233427</v>
+        <v>236590</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5929514920316564</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5386008665828085</v>
+        <v>0.5389238753888445</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6406834371712999</v>
+        <v>0.6493649275466864</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>136</v>
@@ -982,19 +982,19 @@
         <v>139648</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>121110</v>
+        <v>120015</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>159085</v>
+        <v>158926</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.380004499118842</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3295598491449416</v>
+        <v>0.3265803451668952</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.43289542340846</v>
+        <v>0.4324637384215912</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>344</v>
@@ -1003,19 +1003,19 @@
         <v>355684</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>329265</v>
+        <v>327786</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>384366</v>
+        <v>382228</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4860196629851797</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4499195809291739</v>
+        <v>0.4478987195576707</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5252114594632771</v>
+        <v>0.5222909893674416</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>148304</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>130913</v>
+        <v>127750</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>168106</v>
+        <v>167988</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4070485079683435</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3593165628286999</v>
+        <v>0.3506350724533134</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4613991334171911</v>
+        <v>0.4610761246111555</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>223</v>
@@ -1053,19 +1053,19 @@
         <v>227842</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>208405</v>
+        <v>208564</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>246380</v>
+        <v>247475</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.619995500881158</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5671045765915398</v>
+        <v>0.567536261578409</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6704401508550584</v>
+        <v>0.6734196548331048</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>363</v>
@@ -1074,19 +1074,19 @@
         <v>376146</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>347464</v>
+        <v>349602</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>402565</v>
+        <v>404044</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5139803370148203</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4747885405367227</v>
+        <v>0.4777090106325582</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5500804190708261</v>
+        <v>0.5521012804423292</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>320503</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>298065</v>
+        <v>298968</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>343786</v>
+        <v>342945</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6001723403919854</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5581544223273205</v>
+        <v>0.55984671111738</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6437727040621893</v>
+        <v>0.6421974065650913</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -1199,19 +1199,19 @@
         <v>56440</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45270</v>
+        <v>44995</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69100</v>
+        <v>69569</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3363870637766543</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2698161681087959</v>
+        <v>0.2681755570317418</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4118464382016401</v>
+        <v>0.414636312424019</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>373</v>
@@ -1220,19 +1220,19 @@
         <v>376943</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>350259</v>
+        <v>349908</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>399743</v>
+        <v>402938</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.537108183363823</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4990860662372943</v>
+        <v>0.4985861143852883</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.569597458495012</v>
+        <v>0.5741491678486417</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>213515</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>190232</v>
+        <v>191073</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>235953</v>
+        <v>235050</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3998276596080145</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3562272959378106</v>
+        <v>0.3578025934349086</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4418455776726795</v>
+        <v>0.44015328888262</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>108</v>
@@ -1270,19 +1270,19 @@
         <v>111342</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>98682</v>
+        <v>98213</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>122512</v>
+        <v>122787</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6636129362233457</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.58815356179836</v>
+        <v>0.585363687575981</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7301838318912041</v>
+        <v>0.7318244429682581</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>315</v>
@@ -1291,19 +1291,19 @@
         <v>324857</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>302057</v>
+        <v>298862</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>351541</v>
+        <v>351892</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.462891816636177</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.430402541504988</v>
+        <v>0.4258508321513583</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5009139337627057</v>
+        <v>0.5014138856147116</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>625338</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>587858</v>
+        <v>590071</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>658800</v>
+        <v>662033</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.511478706555792</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4808228356216756</v>
+        <v>0.482633119754398</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5388476974218467</v>
+        <v>0.5414928551340165</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>176</v>
@@ -1416,19 +1416,19 @@
         <v>182864</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>159928</v>
+        <v>159612</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>206929</v>
+        <v>207846</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2574239916278274</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.225136577216497</v>
+        <v>0.2246920630127909</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2913015745468993</v>
+        <v>0.2925920146109376</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>795</v>
@@ -1437,19 +1437,19 @@
         <v>808202</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>765977</v>
+        <v>763671</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>851769</v>
+        <v>850311</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4181143569513721</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3962698415645351</v>
+        <v>0.395076803251587</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.440653512693233</v>
+        <v>0.4398989595028</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>597270</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>563808</v>
+        <v>560575</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>634750</v>
+        <v>632537</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.488521293444208</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4611523025781533</v>
+        <v>0.4585071448659836</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5191771643783245</v>
+        <v>0.517366880245602</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>514</v>
@@ -1487,19 +1487,19 @@
         <v>527496</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>503431</v>
+        <v>502514</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>550432</v>
+        <v>550748</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7425760083721726</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7086984254531008</v>
+        <v>0.7074079853890626</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.774863422783503</v>
+        <v>0.7753079369872092</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1103</v>
@@ -1508,19 +1508,19 @@
         <v>1124766</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1081199</v>
+        <v>1082657</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1166991</v>
+        <v>1169297</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5818856430486279</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5593464873067671</v>
+        <v>0.5601010404972001</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6037301584354648</v>
+        <v>0.6049231967484132</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>203905</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>185351</v>
+        <v>184852</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>222273</v>
+        <v>222999</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5849138126966418</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5316898274910562</v>
+        <v>0.5302598878718705</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6376035540394305</v>
+        <v>0.639684872858319</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>120</v>
@@ -1633,19 +1633,19 @@
         <v>128000</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>109847</v>
+        <v>109347</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>150286</v>
+        <v>150225</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2263823407729321</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1942781847837517</v>
+        <v>0.1933936904083717</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2657981534001805</v>
+        <v>0.2656911587036767</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>317</v>
@@ -1654,19 +1654,19 @@
         <v>331904</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>301856</v>
+        <v>301587</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>361995</v>
+        <v>361435</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3631260747526162</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3302508615648483</v>
+        <v>0.3299568842611943</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.396046771694559</v>
+        <v>0.3954343595159533</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>144702</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>126334</v>
+        <v>125608</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>163256</v>
+        <v>163755</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4150861873033582</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3623964459605695</v>
+        <v>0.360315127141681</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4683101725089439</v>
+        <v>0.4697401121281295</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>416</v>
@@ -1704,19 +1704,19 @@
         <v>437413</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>415127</v>
+        <v>415188</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>455566</v>
+        <v>456066</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7736176592270679</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7342018465998196</v>
+        <v>0.734308841296323</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8057218152162482</v>
+        <v>0.8066063095916283</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>557</v>
@@ -1725,19 +1725,19 @@
         <v>582116</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>552025</v>
+        <v>552585</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>612164</v>
+        <v>612433</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6368739252473837</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6039532283054406</v>
+        <v>0.6045656404840465</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6697491384351517</v>
+        <v>0.6700431157388057</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>132648</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>116028</v>
+        <v>115830</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>149168</v>
+        <v>149451</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4508591510417763</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3943686758335312</v>
+        <v>0.3936976626081896</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5070091532815769</v>
+        <v>0.5079725086677029</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>201</v>
@@ -1850,19 +1850,19 @@
         <v>197133</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>173373</v>
+        <v>171436</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>221831</v>
+        <v>223926</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1585055299116871</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1394011798046081</v>
+        <v>0.1378439383983873</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1783639366225192</v>
+        <v>0.1800487583204118</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>337</v>
@@ -1871,19 +1871,19 @@
         <v>329780</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>297824</v>
+        <v>299163</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>360119</v>
+        <v>360796</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2144345839961468</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1936556350119958</v>
+        <v>0.1945259195827076</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2341617927450879</v>
+        <v>0.2346017402560772</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>161563</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>145043</v>
+        <v>144760</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>178183</v>
+        <v>178381</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5491408489582237</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4929908467184231</v>
+        <v>0.4920274913322973</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6056313241664688</v>
+        <v>0.6063023373918105</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1032</v>
@@ -1921,19 +1921,19 @@
         <v>1046563</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1021865</v>
+        <v>1019770</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1070323</v>
+        <v>1072260</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8414944700883129</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.821636063377481</v>
+        <v>0.8199512416795885</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8605988201953925</v>
+        <v>0.8621560616016132</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1198</v>
@@ -1942,19 +1942,19 @@
         <v>1208127</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1177788</v>
+        <v>1177111</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1240083</v>
+        <v>1238744</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7855654160038532</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.765838207254912</v>
+        <v>0.7653982597439229</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8063443649880042</v>
+        <v>0.8054740804172925</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>1772099</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1716053</v>
+        <v>1712694</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1830604</v>
+        <v>1830596</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5492751502669585</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5319032401417239</v>
+        <v>0.5308620991226759</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5674090803258602</v>
+        <v>0.5674067533035341</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>805</v>
@@ -2067,19 +2067,19 @@
         <v>823855</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>774303</v>
+        <v>774719</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>873061</v>
+        <v>877799</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2452529973558682</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2305018485960107</v>
+        <v>0.2306255461122479</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2599008806269285</v>
+        <v>0.2613114268222529</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2546</v>
@@ -2088,19 +2088,19 @@
         <v>2595954</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2518415</v>
+        <v>2516458</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2679725</v>
+        <v>2676634</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3941950847680502</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3824207867016257</v>
+        <v>0.3821236467852803</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4069156232699865</v>
+        <v>0.4064462756015538</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1454151</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1395646</v>
+        <v>1395654</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1510197</v>
+        <v>1513556</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4507248497330415</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4325909196741398</v>
+        <v>0.4325932466964654</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4680967598582761</v>
+        <v>0.469137900877324</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2473</v>
@@ -2138,19 +2138,19 @@
         <v>2535351</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2486145</v>
+        <v>2481407</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2584903</v>
+        <v>2584487</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7547470026441317</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7400991193730718</v>
+        <v>0.7386885731777471</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7694981514039894</v>
+        <v>0.7693744538877522</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3897</v>
@@ -2159,19 +2159,19 @@
         <v>3989502</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3905731</v>
+        <v>3908822</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4067041</v>
+        <v>4068998</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6058049152319498</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5930843767300136</v>
+        <v>0.5935537243984462</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6175792132983742</v>
+        <v>0.6178763532147197</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>268399</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>244902</v>
+        <v>246143</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>287628</v>
+        <v>287055</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6406098745131984</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5845281589506618</v>
+        <v>0.5874902519239894</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6865067411182062</v>
+        <v>0.6851377994778269</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>120</v>
@@ -2526,19 +2526,19 @@
         <v>130983</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>112814</v>
+        <v>112427</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>149790</v>
+        <v>148604</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4263539073282054</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3672128908464076</v>
+        <v>0.365952894086134</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.487573703027578</v>
+        <v>0.4837105791820646</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>370</v>
@@ -2547,19 +2547,19 @@
         <v>399382</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>367411</v>
+        <v>371013</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>426936</v>
+        <v>427827</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.549968429586334</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5059427351354734</v>
+        <v>0.5109034022747253</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5879123699751052</v>
+        <v>0.5891390435633739</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>150575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>131346</v>
+        <v>131919</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>174072</v>
+        <v>172831</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3593901254868015</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3134932588817939</v>
+        <v>0.3148622005221731</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4154718410493381</v>
+        <v>0.4125097480760107</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>157</v>
@@ -2597,19 +2597,19 @@
         <v>176233</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>157426</v>
+        <v>158612</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>194402</v>
+        <v>194789</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5736460926717947</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5124262969724219</v>
+        <v>0.5162894208179355</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6327871091535924</v>
+        <v>0.634047105913866</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>295</v>
@@ -2618,19 +2618,19 @@
         <v>326808</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>299254</v>
+        <v>298363</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>358779</v>
+        <v>355177</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.450031570413666</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4120876300248948</v>
+        <v>0.4108609564366261</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4940572648645266</v>
+        <v>0.4890965977252746</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>234354</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>211626</v>
+        <v>212698</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>255266</v>
+        <v>256794</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.582083755954406</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5256333691482445</v>
+        <v>0.5282958679510066</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6340239256853542</v>
+        <v>0.6378192819211511</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>111</v>
@@ -2743,19 +2743,19 @@
         <v>121736</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>104682</v>
+        <v>103250</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>141710</v>
+        <v>139256</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.372120941930345</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3199893011716347</v>
+        <v>0.3156131710007458</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4331774584635777</v>
+        <v>0.4256756417902107</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>322</v>
@@ -2764,19 +2764,19 @@
         <v>356090</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>329411</v>
+        <v>327481</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>385612</v>
+        <v>383904</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4879594893080273</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4514000179703935</v>
+        <v>0.4487553016253545</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5284150492554178</v>
+        <v>0.5260744284010309</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>168258</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>147346</v>
+        <v>145818</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>190986</v>
+        <v>189914</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.417916244045594</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3659760743146458</v>
+        <v>0.3621807180788489</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4743666308517555</v>
+        <v>0.4717041320489933</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>185</v>
@@ -2814,19 +2814,19 @@
         <v>205405</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>185431</v>
+        <v>187885</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>222459</v>
+        <v>223891</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.627879058069655</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5668225415364224</v>
+        <v>0.5743243582097896</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6800106988283656</v>
+        <v>0.6843868289992552</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>334</v>
@@ -2835,19 +2835,19 @@
         <v>373663</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>344141</v>
+        <v>345849</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>400342</v>
+        <v>402272</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5120405106919727</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4715849507445822</v>
+        <v>0.4739255715989689</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5485999820296065</v>
+        <v>0.5512446983746448</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>340524</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>315373</v>
+        <v>314596</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>364491</v>
+        <v>363669</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5747100230613941</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5322622929652702</v>
+        <v>0.5309499706289353</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6151589444761719</v>
+        <v>0.6137720115613987</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -2960,19 +2960,19 @@
         <v>64283</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50745</v>
+        <v>51662</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78266</v>
+        <v>79905</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2562111158921029</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2022527318706659</v>
+        <v>0.2059111418812666</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3119443132030112</v>
+        <v>0.3184786779146146</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>378</v>
@@ -2981,19 +2981,19 @@
         <v>404807</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>373151</v>
+        <v>374835</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>435069</v>
+        <v>433120</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.479963433540009</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4424302832430825</v>
+        <v>0.4444272277420719</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5158444572989678</v>
+        <v>0.5135335889107152</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>251991</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>228024</v>
+        <v>228846</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>277142</v>
+        <v>277919</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4252899769386059</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3848410555238281</v>
+        <v>0.3862279884386012</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4677377070347298</v>
+        <v>0.4690500293710647</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>177</v>
@@ -3031,19 +3031,19 @@
         <v>186614</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>172631</v>
+        <v>170992</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>200152</v>
+        <v>199235</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7437888841078971</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6880556867969886</v>
+        <v>0.681521322085385</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7977472681293336</v>
+        <v>0.7940888581187323</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>413</v>
@@ -3052,19 +3052,19 @@
         <v>438605</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>408343</v>
+        <v>410292</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>470261</v>
+        <v>468577</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5200365664599911</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.484155542701032</v>
+        <v>0.4864664110892848</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5575697167569175</v>
+        <v>0.5555727722579278</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>583829</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>550395</v>
+        <v>552786</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>615122</v>
+        <v>619905</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5286825750197576</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4984058138022852</v>
+        <v>0.5005711912293516</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5570191664692802</v>
+        <v>0.5613502805859492</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>177</v>
@@ -3177,19 +3177,19 @@
         <v>194369</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>171985</v>
+        <v>171530</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>222395</v>
+        <v>222326</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2604195355015875</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2304296750133429</v>
+        <v>0.2298197727221203</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.29796982733905</v>
+        <v>0.2978772515244948</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>725</v>
@@ -3198,19 +3198,19 @@
         <v>778198</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>732549</v>
+        <v>734994</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>825618</v>
+        <v>826644</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4204937106301408</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3958276686331497</v>
+        <v>0.397148466157381</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4461169989324861</v>
+        <v>0.4466712010552204</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>520481</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>489188</v>
+        <v>484405</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>553915</v>
+        <v>551524</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4713174249802424</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4429808335307198</v>
+        <v>0.4386497194140509</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5015941861977148</v>
+        <v>0.4994288087706483</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>515</v>
@@ -3248,19 +3248,19 @@
         <v>551998</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>523972</v>
+        <v>524041</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>574382</v>
+        <v>574837</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7395804644984125</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.70203017266095</v>
+        <v>0.7021227484755052</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7695703249866571</v>
+        <v>0.7701802272778796</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1002</v>
@@ -3269,19 +3269,19 @@
         <v>1072479</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1025059</v>
+        <v>1024033</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1118128</v>
+        <v>1115683</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5795062893698592</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5538830010675139</v>
+        <v>0.5533287989447796</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.60417233136685</v>
+        <v>0.6028515338426188</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>278241</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>256197</v>
+        <v>257979</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>299655</v>
+        <v>301367</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5694737357581864</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5243562421591274</v>
+        <v>0.5280048585095617</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6133019767693852</v>
+        <v>0.6168057867744614</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>141</v>
@@ -3394,19 +3394,19 @@
         <v>156304</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>134071</v>
+        <v>133957</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>181516</v>
+        <v>181692</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2075411261801849</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1780197475506377</v>
+        <v>0.1778680391838104</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2410179974395406</v>
+        <v>0.2412510655226964</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>410</v>
@@ -3415,19 +3415,19 @@
         <v>434545</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>401789</v>
+        <v>401221</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>470935</v>
+        <v>469002</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3499550240983693</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3235754661153897</v>
+        <v>0.3231180783764677</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3792610768366872</v>
+        <v>0.3777045310144983</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>210352</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>188938</v>
+        <v>187226</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>232396</v>
+        <v>230614</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4305262642418136</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3866980232306148</v>
+        <v>0.3831942132255386</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4756437578408727</v>
+        <v>0.4719951414904384</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>554</v>
@@ -3465,19 +3465,19 @@
         <v>596819</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>571607</v>
+        <v>571431</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>619052</v>
+        <v>619166</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7924588738198151</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7589820025604594</v>
+        <v>0.7587489344773035</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8219802524493623</v>
+        <v>0.8221319608161896</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>751</v>
@@ -3486,19 +3486,19 @@
         <v>807171</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>770781</v>
+        <v>772714</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>839927</v>
+        <v>840495</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6500449759016307</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6207389231633128</v>
+        <v>0.6222954689855017</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6764245338846103</v>
+        <v>0.6768819216235326</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>131541</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>115677</v>
+        <v>114814</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>147586</v>
+        <v>146721</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5007208169970649</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4403354990583729</v>
+        <v>0.4370469753921109</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.561799362858049</v>
+        <v>0.5585037541149351</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>213</v>
@@ -3611,19 +3611,19 @@
         <v>227230</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>200317</v>
+        <v>202592</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>254190</v>
+        <v>256521</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2076605082618282</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1830656950006982</v>
+        <v>0.1851441692193914</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2322988052644751</v>
+        <v>0.2344287653041561</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>346</v>
@@ -3632,19 +3632,19 @@
         <v>358771</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>322805</v>
+        <v>324809</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>392861</v>
+        <v>391802</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.264396834856971</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2378917860861058</v>
+        <v>0.2393688933567605</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2895196609406723</v>
+        <v>0.2887396151093274</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>131162</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>115117</v>
+        <v>115982</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>147026</v>
+        <v>147889</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4992791830029351</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4382006371419511</v>
+        <v>0.4414962458850646</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5596645009416271</v>
+        <v>0.562953024607889</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>816</v>
@@ -3682,19 +3682,19 @@
         <v>867007</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>840047</v>
+        <v>837716</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>893920</v>
+        <v>891645</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7923394917381719</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7677011947355249</v>
+        <v>0.7655712346958439</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8169343049993019</v>
+        <v>0.8148558307806086</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>944</v>
@@ -3703,19 +3703,19 @@
         <v>998169</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>964079</v>
+        <v>965138</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1034135</v>
+        <v>1032131</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.735603165143029</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7104803390593277</v>
+        <v>0.7112603848906726</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7621082139138943</v>
+        <v>0.7606311066432394</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>1836888</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1777935</v>
+        <v>1777255</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1891549</v>
+        <v>1895271</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5617898680011497</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5437596241754854</v>
+        <v>0.5435516342296585</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5785073316025647</v>
+        <v>0.5796453777223547</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>822</v>
@@ -3828,19 +3828,19 @@
         <v>894904</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>841396</v>
+        <v>840341</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>950613</v>
+        <v>946240</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2572315755694114</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2418513128503696</v>
+        <v>0.2415479624464384</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2732447636542477</v>
+        <v>0.2719878114830312</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2551</v>
@@ -3849,19 +3849,19 @@
         <v>2731792</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2653957</v>
+        <v>2651601</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2815174</v>
+        <v>2828114</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4047885915814253</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.393255252144867</v>
+        <v>0.3929060758174894</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4171438755403754</v>
+        <v>0.4190612734413996</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>1432819</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1378158</v>
+        <v>1374436</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1491772</v>
+        <v>1492452</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4382101319988503</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4214926683974352</v>
+        <v>0.4203546222776452</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4562403758245146</v>
+        <v>0.4564483657703413</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2404</v>
@@ -3899,19 +3899,19 @@
         <v>2584077</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2528368</v>
+        <v>2532741</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2637585</v>
+        <v>2638640</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7427684244305885</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7267552363457522</v>
+        <v>0.7280121885169687</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7581486871496305</v>
+        <v>0.7584520375535616</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3739</v>
@@ -3920,19 +3920,19 @@
         <v>4016896</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3933514</v>
+        <v>3920574</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4094731</v>
+        <v>4097087</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5952114084185747</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5828561244596248</v>
+        <v>0.5809387265586007</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.606744747855133</v>
+        <v>0.6070939241825106</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>276460</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>257467</v>
+        <v>256391</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>296562</v>
+        <v>296597</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6616846351194511</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6162271440333438</v>
+        <v>0.613652362756098</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.709798217273294</v>
+        <v>0.7098813259779837</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>137</v>
@@ -4287,19 +4287,19 @@
         <v>143977</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>125878</v>
+        <v>125159</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>162837</v>
+        <v>162089</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4309549691278605</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3767820148983995</v>
+        <v>0.3746291672660157</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4874068403067976</v>
+        <v>0.4851680270852594</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>392</v>
@@ -4308,19 +4308,19 @@
         <v>420437</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>392242</v>
+        <v>391493</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>449331</v>
+        <v>446965</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5591655979736579</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.521666539489093</v>
+        <v>0.5206711188656176</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5975937221123669</v>
+        <v>0.5944470574724462</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>141352</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>121250</v>
+        <v>121215</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>160345</v>
+        <v>161421</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3383153648805489</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.290201782726706</v>
+        <v>0.2901186740220164</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3837728559666562</v>
+        <v>0.386347637243902</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>185</v>
@@ -4358,19 +4358,19 @@
         <v>190111</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>171251</v>
+        <v>171999</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>208210</v>
+        <v>208929</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5690450308721395</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5125931596932024</v>
+        <v>0.5148319729147406</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6232179851016004</v>
+        <v>0.6253708327339842</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>315</v>
@@ -4379,19 +4379,19 @@
         <v>331464</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>302570</v>
+        <v>304936</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>359659</v>
+        <v>360408</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4408344020263421</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4024062778876331</v>
+        <v>0.4055529425275538</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4783334605109069</v>
+        <v>0.4793288811343824</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>228362</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>208647</v>
+        <v>208248</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>248543</v>
+        <v>247615</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6214275699350845</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5677799511494717</v>
+        <v>0.5666929345827135</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6763453329052429</v>
+        <v>0.6738213177554125</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>167</v>
@@ -4504,19 +4504,19 @@
         <v>178232</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>157849</v>
+        <v>160136</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>196639</v>
+        <v>197966</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4915517916678896</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4353380751674112</v>
+        <v>0.4416447915323128</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5423185789833551</v>
+        <v>0.5459781925290882</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>381</v>
@@ -4525,19 +4525,19 @@
         <v>406593</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>378745</v>
+        <v>378189</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>429890</v>
+        <v>434578</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5569245309896179</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5187792278535273</v>
+        <v>0.518017740885764</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5888349200067325</v>
+        <v>0.595255836816371</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>139117</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>118936</v>
+        <v>119864</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>158832</v>
+        <v>159231</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3785724300649155</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.323654667094757</v>
+        <v>0.3261786822445877</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4322200488505282</v>
+        <v>0.4333070654172866</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>176</v>
@@ -4575,19 +4575,19 @@
         <v>184358</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>165951</v>
+        <v>164624</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>204741</v>
+        <v>202454</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5084482083321105</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4576814210166448</v>
+        <v>0.4540218074709118</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5646619248325889</v>
+        <v>0.5583552084676873</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>308</v>
@@ -4596,19 +4596,19 @@
         <v>323476</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>300179</v>
+        <v>295491</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>351324</v>
+        <v>351880</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4430754690103821</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4111650799932675</v>
+        <v>0.4047441631836289</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4812207721464727</v>
+        <v>0.4819822591142358</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>312754</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>291816</v>
+        <v>289839</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>333176</v>
+        <v>334257</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6216014697160344</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5799876830868808</v>
+        <v>0.5760574265012017</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6621911635574622</v>
+        <v>0.664338557131144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -4721,19 +4721,19 @@
         <v>51560</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40053</v>
+        <v>39957</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64525</v>
+        <v>65978</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3181105445525175</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2471135607831497</v>
+        <v>0.2465255976578308</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3980983347016966</v>
+        <v>0.4070669677674914</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>343</v>
@@ -4742,19 +4742,19 @@
         <v>364314</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>335838</v>
+        <v>338602</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>387037</v>
+        <v>390187</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.547655823247528</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5048489849743383</v>
+        <v>0.5090042933382788</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5818139013723197</v>
+        <v>0.5865500145317922</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>190388</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>169966</v>
+        <v>168885</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>211326</v>
+        <v>213303</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3783985302839656</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3378088364425378</v>
+        <v>0.335661442868856</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4200123169131193</v>
+        <v>0.4239425734987983</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>102</v>
@@ -4792,19 +4792,19 @@
         <v>110522</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>97557</v>
+        <v>96104</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>122029</v>
+        <v>122125</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6818894554474826</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6019016652983034</v>
+        <v>0.5929330322325086</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7528864392168502</v>
+        <v>0.7534744023421691</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>291</v>
@@ -4813,19 +4813,19 @@
         <v>300910</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>278187</v>
+        <v>275037</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>329386</v>
+        <v>326622</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.452344176752472</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4181860986276804</v>
+        <v>0.4134499854682079</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4951510150256619</v>
+        <v>0.4909957066617214</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>612257</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>581058</v>
+        <v>573969</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>645409</v>
+        <v>646834</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5512846643738256</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5231925519535174</v>
+        <v>0.5168100138496946</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5811354706089973</v>
+        <v>0.582418623254763</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>273</v>
@@ -4938,19 +4938,19 @@
         <v>279261</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>252633</v>
+        <v>249910</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>307325</v>
+        <v>304571</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3415482783689018</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3089805277275862</v>
+        <v>0.3056504062780169</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3758719671408094</v>
+        <v>0.3725029137739955</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>856</v>
@@ -4959,19 +4959,19 @@
         <v>891518</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>852042</v>
+        <v>845978</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>936063</v>
+        <v>937960</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4623496785305652</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4418771508340347</v>
+        <v>0.438732291571317</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4854512318224085</v>
+        <v>0.4864347402962945</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>498343</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>465191</v>
+        <v>463766</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>529542</v>
+        <v>536631</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4487153356261744</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4188645293910025</v>
+        <v>0.417581376745237</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4768074480464825</v>
+        <v>0.4831899861503053</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>517</v>
@@ -5009,19 +5009,19 @@
         <v>538372</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>510308</v>
+        <v>513062</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>565000</v>
+        <v>567723</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6584517216310982</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6241280328591908</v>
+        <v>0.6274970862260045</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6910194722724138</v>
+        <v>0.694349593721983</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>998</v>
@@ -5030,19 +5030,19 @@
         <v>1036715</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>992170</v>
+        <v>990273</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1076191</v>
+        <v>1082255</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5376503214694348</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5145487681775914</v>
+        <v>0.5135652597037057</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5581228491659653</v>
+        <v>0.5612677084286829</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>294237</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>269148</v>
+        <v>267873</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>318154</v>
+        <v>318168</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4899829403805739</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4482039348306608</v>
+        <v>0.4460809019385202</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5298122887817187</v>
+        <v>0.5298341234566736</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>166</v>
@@ -5155,19 +5155,19 @@
         <v>172525</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>150799</v>
+        <v>149406</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>197264</v>
+        <v>198177</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.23697512660358</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2071317028670142</v>
+        <v>0.2052196040946354</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2709554027582931</v>
+        <v>0.2722095499937114</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>446</v>
@@ -5176,19 +5176,19 @@
         <v>466762</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>433829</v>
+        <v>431857</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>501091</v>
+        <v>503405</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3513356883525705</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3265466132572315</v>
+        <v>0.3250624163051987</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3771755452499856</v>
+        <v>0.3789173680112081</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>306267</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>282350</v>
+        <v>282336</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>331356</v>
+        <v>332631</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5100170596194261</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4701877112182813</v>
+        <v>0.4701658765433264</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.551796065169339</v>
+        <v>0.5539190980614794</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>524</v>
@@ -5226,19 +5226,19 @@
         <v>555507</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>530768</v>
+        <v>529855</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>577233</v>
+        <v>578626</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.76302487339642</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7290445972417072</v>
+        <v>0.7277904500062891</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7928682971329859</v>
+        <v>0.7947803959053646</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>822</v>
@@ -5247,19 +5247,19 @@
         <v>861774</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>827445</v>
+        <v>825131</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>894707</v>
+        <v>896679</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6486643116474295</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6228244547500144</v>
+        <v>0.6210826319887919</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6734533867427683</v>
+        <v>0.6749375836948011</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>148834</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>132597</v>
+        <v>131877</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>165611</v>
+        <v>165186</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5309780446477733</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4730501954503367</v>
+        <v>0.4704826031254624</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5908295688337455</v>
+        <v>0.5893159206638893</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>233</v>
@@ -5372,19 +5372,19 @@
         <v>242253</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>215672</v>
+        <v>213515</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>269923</v>
+        <v>270592</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2262579032649611</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2014327440596085</v>
+        <v>0.1994176477643794</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2521013572415659</v>
+        <v>0.2527260536522451</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>377</v>
@@ -5393,19 +5393,19 @@
         <v>391086</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>357483</v>
+        <v>354914</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>426616</v>
+        <v>424233</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2894806718808953</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2646073016009566</v>
+        <v>0.2627063889839905</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3157793329350186</v>
+        <v>0.3140155829476561</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>131468</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>114691</v>
+        <v>115116</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>147705</v>
+        <v>148425</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4690219553522267</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4091704311662547</v>
+        <v>0.4106840793361108</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5269498045496632</v>
+        <v>0.5295173968745376</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>748</v>
@@ -5443,19 +5443,19 @@
         <v>828439</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>800769</v>
+        <v>800100</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>855020</v>
+        <v>857177</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7737420967350389</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7478986427584341</v>
+        <v>0.7472739463477551</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7985672559403916</v>
+        <v>0.8005823522356209</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>870</v>
@@ -5464,19 +5464,19 @@
         <v>959907</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>924377</v>
+        <v>926760</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>993510</v>
+        <v>996079</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7105193281191047</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6842206670649814</v>
+        <v>0.6859844170523439</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7353926983990434</v>
+        <v>0.7372936110160095</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>1872902</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1814552</v>
+        <v>1808255</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1927749</v>
+        <v>1923073</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5710350091128823</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5532444621500722</v>
+        <v>0.5513245746356499</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5877573986128005</v>
+        <v>0.5863317734860773</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1023</v>
@@ -5589,19 +5589,19 @@
         <v>1067808</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1013068</v>
+        <v>1010201</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1122926</v>
+        <v>1121341</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3072724839006645</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2915204236209041</v>
+        <v>0.2906954977993944</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3231330750900506</v>
+        <v>0.3226772091986169</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2795</v>
@@ -5610,19 +5610,19 @@
         <v>2940711</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2868555</v>
+        <v>2855946</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3028923</v>
+        <v>3028202</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4353411909912685</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4246592836547983</v>
+        <v>0.4227926877618972</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4484001649103371</v>
+        <v>0.4482933420918736</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>1406936</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1352089</v>
+        <v>1356765</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1465286</v>
+        <v>1471583</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4289649908871176</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4122426013871995</v>
+        <v>0.4136682265139227</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4467555378499278</v>
+        <v>0.4486754253643501</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2252</v>
@@ -5660,19 +5660,19 @@
         <v>2407310</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2352192</v>
+        <v>2353777</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2462050</v>
+        <v>2464917</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6927275160993355</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6768669249099494</v>
+        <v>0.6773227908013831</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.708479576379096</v>
+        <v>0.7093045022006056</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3604</v>
@@ -5681,19 +5681,19 @@
         <v>3814245</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3726033</v>
+        <v>3726754</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3886401</v>
+        <v>3899010</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5646588090087314</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5515998350896629</v>
+        <v>0.5517066579081265</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5753407163452017</v>
+        <v>0.5772073122381028</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>304682</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>278487</v>
+        <v>280719</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>326785</v>
+        <v>328052</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5533455096269534</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5057720115290708</v>
+        <v>0.5098254594887224</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5934877165132892</v>
+        <v>0.5957884745653198</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>246</v>
@@ -6048,19 +6048,19 @@
         <v>175414</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>157759</v>
+        <v>157725</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>194968</v>
+        <v>193321</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3591520529522375</v>
+        <v>0.3591520529522373</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3230054221683472</v>
+        <v>0.3229356535130741</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3991885246057331</v>
+        <v>0.3958154443332694</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>550</v>
@@ -6069,19 +6069,19 @@
         <v>480096</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>448177</v>
+        <v>446745</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>511671</v>
+        <v>511512</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4620620283017524</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.431342477895319</v>
+        <v>0.4299642226506291</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4924513633855305</v>
+        <v>0.4922985053951779</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>245936</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>223833</v>
+        <v>222566</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>272131</v>
+        <v>269899</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4466544903730467</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4065122834867109</v>
+        <v>0.4042115254346802</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4942279884709291</v>
+        <v>0.4901745405112774</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>440</v>
@@ -6119,19 +6119,19 @@
         <v>312997</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>293443</v>
+        <v>295090</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>330652</v>
+        <v>330686</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6408479470477627</v>
+        <v>0.6408479470477626</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6008114753942668</v>
+        <v>0.6041845556667307</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6769945778316528</v>
+        <v>0.6770643464869259</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>690</v>
@@ -6140,19 +6140,19 @@
         <v>558933</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>527358</v>
+        <v>527517</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>590852</v>
+        <v>592284</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5379379716982476</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5075486366144695</v>
+        <v>0.5077014946048221</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.568657522104681</v>
+        <v>0.5700357773493707</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>224691</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>203457</v>
+        <v>201498</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>248575</v>
+        <v>249402</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4649949572971413</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4210519089744</v>
+        <v>0.4169971987473873</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5144228899369947</v>
+        <v>0.5161327815575238</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>208</v>
@@ -6265,19 +6265,19 @@
         <v>145667</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>129994</v>
+        <v>129379</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>163782</v>
+        <v>162687</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3454391376860267</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3082717997972308</v>
+        <v>0.306812881352703</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3883979459584823</v>
+        <v>0.3858000716631831</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>433</v>
@@ -6286,19 +6286,19 @@
         <v>370358</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>343726</v>
+        <v>342260</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>399719</v>
+        <v>398001</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4092814047836534</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3798501121818244</v>
+        <v>0.3782305487476038</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4417282765196296</v>
+        <v>0.4398290919302629</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>258521</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>234637</v>
+        <v>233810</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>279755</v>
+        <v>281714</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5350050427028586</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4855771100630055</v>
+        <v>0.4838672184424764</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5789480910256004</v>
+        <v>0.5830028012526126</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>380</v>
@@ -6336,19 +6336,19 @@
         <v>276020</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>257905</v>
+        <v>259000</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>291693</v>
+        <v>292308</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6545608623139735</v>
+        <v>0.6545608623139733</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6116020540415182</v>
+        <v>0.614199928336817</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6917282002027694</v>
+        <v>0.6931871186472972</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>636</v>
@@ -6357,19 +6357,19 @@
         <v>534541</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>505180</v>
+        <v>506898</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>561173</v>
+        <v>562639</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5907185952163466</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5582717234803702</v>
+        <v>0.560170908069737</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6201498878181757</v>
+        <v>0.6217694512523962</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>227684</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>206550</v>
+        <v>205455</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>253634</v>
+        <v>250980</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4832145834166929</v>
+        <v>0.483214583416693</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4383608856729241</v>
+        <v>0.4360381077989849</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5382881700434272</v>
+        <v>0.532655420573391</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -6482,19 +6482,19 @@
         <v>46565</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36916</v>
+        <v>37239</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57297</v>
+        <v>56223</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2497204632742172</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.19797751437177</v>
+        <v>0.1997086756768299</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3072750062514242</v>
+        <v>0.301515852960402</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>299</v>
@@ -6503,19 +6503,19 @@
         <v>274249</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>246633</v>
+        <v>250014</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>297837</v>
+        <v>300717</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4170110649720184</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3750192386026381</v>
+        <v>0.3801599911744799</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4528773969082028</v>
+        <v>0.4572569678155827</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>243503</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>217553</v>
+        <v>220207</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>264637</v>
+        <v>265732</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5167854165833071</v>
+        <v>0.516785416583307</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4617118299565731</v>
+        <v>0.4673445794266091</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.561639114327076</v>
+        <v>0.5639618922010149</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>220</v>
@@ -6553,19 +6553,19 @@
         <v>139902</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>129170</v>
+        <v>130244</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>149551</v>
+        <v>149228</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7502795367257827</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6927249937485759</v>
+        <v>0.6984841470395983</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8020224856282301</v>
+        <v>0.8002913243231702</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>476</v>
@@ -6574,19 +6574,19 @@
         <v>383406</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>359818</v>
+        <v>356938</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>411022</v>
+        <v>407641</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5829889350279815</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5471226030917974</v>
+        <v>0.5427430321844173</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6249807613973617</v>
+        <v>0.61984000882552</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>544072</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>506888</v>
+        <v>506928</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>579381</v>
+        <v>581053</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4826317896372736</v>
+        <v>0.4826317896372735</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4496464489345471</v>
+        <v>0.4496822759943902</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5139533414188211</v>
+        <v>0.5154366178713579</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>299</v>
@@ -6699,19 +6699,19 @@
         <v>230439</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>207769</v>
+        <v>208417</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>252923</v>
+        <v>256082</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2680992541316606</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2417246482215674</v>
+        <v>0.2424778485552543</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2942577531848123</v>
+        <v>0.2979327383195983</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>822</v>
@@ -6720,19 +6720,19 @@
         <v>774512</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>729098</v>
+        <v>729212</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>816670</v>
+        <v>816946</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3898222735667731</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3669648771444798</v>
+        <v>0.3670223351472029</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4110408889048813</v>
+        <v>0.4111800575394968</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>583231</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>547922</v>
+        <v>546250</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>620415</v>
+        <v>620375</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5173682103627265</v>
+        <v>0.5173682103627264</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.486046658581179</v>
+        <v>0.4845633821286421</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5503535510654527</v>
+        <v>0.5503177240056099</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>929</v>
@@ -6770,19 +6770,19 @@
         <v>629090</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>606606</v>
+        <v>603447</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>651760</v>
+        <v>651112</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7319007458683395</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7057422468151876</v>
+        <v>0.7020672616804015</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7582753517784325</v>
+        <v>0.7575221514447457</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1520</v>
@@ -6791,19 +6791,19 @@
         <v>1212321</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1170163</v>
+        <v>1169887</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1257735</v>
+        <v>1257621</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6101777264332269</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5889591110951186</v>
+        <v>0.5888199424605032</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6330351228555202</v>
+        <v>0.6329776648527959</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>257777</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>231582</v>
+        <v>230229</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>283653</v>
+        <v>284172</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4553339006007258</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4090625268153991</v>
+        <v>0.4066734323856505</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.501041100987608</v>
+        <v>0.5019572606176601</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>214</v>
@@ -6916,19 +6916,19 @@
         <v>152817</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>134519</v>
+        <v>133897</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>173925</v>
+        <v>172188</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1845078985502084</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1624154032686606</v>
+        <v>0.1616640938452786</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2099936802970998</v>
+        <v>0.2078961498932097</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>451</v>
@@ -6937,19 +6937,19 @@
         <v>410594</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>375348</v>
+        <v>378198</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>443433</v>
+        <v>447705</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2944660772154468</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2691883543296746</v>
+        <v>0.2712324843395457</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3180172594002292</v>
+        <v>0.3210805301106854</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>308351</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>282475</v>
+        <v>281956</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>334546</v>
+        <v>335899</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5446660993992742</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4989588990123919</v>
+        <v>0.4980427393823403</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5909374731846013</v>
+        <v>0.5933265676143495</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1072</v>
@@ -6987,19 +6987,19 @@
         <v>675424</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>654316</v>
+        <v>656053</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>693722</v>
+        <v>694344</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8154921014497917</v>
+        <v>0.8154921014497915</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7900063197029007</v>
+        <v>0.7921038501067904</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8375845967313394</v>
+        <v>0.8383359061547222</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1380</v>
@@ -7008,19 +7008,19 @@
         <v>983775</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>950936</v>
+        <v>946664</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1019021</v>
+        <v>1016171</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7055339227845532</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6819827405997708</v>
+        <v>0.6789194698893146</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7308116456703254</v>
+        <v>0.7287675156604543</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>85841</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>63039</v>
+        <v>64523</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>113017</v>
+        <v>109076</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.361850028141519</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2657311965227657</v>
+        <v>0.2719853705081648</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.476407238485073</v>
+        <v>0.4597942175131167</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>145</v>
@@ -7133,19 +7133,19 @@
         <v>127207</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>105296</v>
+        <v>105906</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>151267</v>
+        <v>149822</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1510313238645453</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1250169068984129</v>
+        <v>0.1257411405115029</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1795976514208622</v>
+        <v>0.1778815793753112</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>184</v>
@@ -7154,19 +7154,19 @@
         <v>213048</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>185078</v>
+        <v>178866</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>250340</v>
+        <v>245709</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1973609737017575</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.171450805725525</v>
+        <v>0.1656957030032611</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2319071881874145</v>
+        <v>0.227617779701251</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>151387</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>124211</v>
+        <v>128152</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>174189</v>
+        <v>172705</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6381499718584811</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5235927615149271</v>
+        <v>0.5402057824868832</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7342688034772346</v>
+        <v>0.7280146294918349</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1011</v>
@@ -7204,19 +7204,19 @@
         <v>715048</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>690988</v>
+        <v>692433</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>736959</v>
+        <v>736349</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8489686761354548</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8204023485791377</v>
+        <v>0.8221184206246888</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8749830931015871</v>
+        <v>0.874258859488497</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1084</v>
@@ -7225,19 +7225,19 @@
         <v>866434</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>829142</v>
+        <v>833773</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>894404</v>
+        <v>900616</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8026390262982425</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7680928118125855</v>
+        <v>0.7723822202987488</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8285491942744747</v>
+        <v>0.8343042969967388</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>1644749</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1582738</v>
+        <v>1582623</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1707268</v>
+        <v>1709919</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4787261975159264</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4606771863704814</v>
+        <v>0.4606436123477908</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4969233462492434</v>
+        <v>0.4976949499964513</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1180</v>
@@ -7350,19 +7350,19 @@
         <v>878109</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>833762</v>
+        <v>832741</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>925103</v>
+        <v>922447</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2421306672629204</v>
+        <v>0.2421306672629203</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.229902581196948</v>
+        <v>0.2296210531584569</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2550888275922508</v>
+        <v>0.2543565973272137</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2739</v>
@@ -7371,19 +7371,19 @@
         <v>2522857</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2444423</v>
+        <v>2439770</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2605181</v>
+        <v>2604852</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.357230512687652</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3461244055151037</v>
+        <v>0.3454655809028562</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3688873294348597</v>
+        <v>0.3688408098508783</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>1790928</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1728409</v>
+        <v>1725758</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1852939</v>
+        <v>1853054</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5212738024840736</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5030766537507565</v>
+        <v>0.5023050500035489</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5393228136295186</v>
+        <v>0.5393563876522092</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4052</v>
@@ -7421,19 +7421,19 @@
         <v>2748481</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2701487</v>
+        <v>2704143</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2792828</v>
+        <v>2793849</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7578693327370795</v>
+        <v>0.7578693327370796</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7449111724077491</v>
+        <v>0.7456434026727862</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7700974188030519</v>
+        <v>0.7703789468415431</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5786</v>
@@ -7442,19 +7442,19 @@
         <v>4539410</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4457086</v>
+        <v>4457415</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4617844</v>
+        <v>4622497</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6427694873123481</v>
+        <v>0.642769487312348</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.63111267056514</v>
+        <v>0.6311591901491219</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6538755944848963</v>
+        <v>0.6545344190971438</v>
       </c>
     </row>
     <row r="24">
